--- a/global_data/day_data/603408.xlsx
+++ b/global_data/day_data/603408.xlsx
@@ -47,8 +47,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -102,12 +103,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1151"/>
+  <dimension ref="A1:I1153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -33787,6 +33789,64 @@
         <v>0.0109394445151964</v>
       </c>
     </row>
+    <row r="1152" spans="1:9">
+      <c r="A1152" s="3">
+        <v>45776</v>
+      </c>
+      <c r="B1152">
+        <v>10.92</v>
+      </c>
+      <c r="C1152">
+        <v>11.2</v>
+      </c>
+      <c r="D1152">
+        <v>10.87</v>
+      </c>
+      <c r="E1152">
+        <v>11.1</v>
+      </c>
+      <c r="F1152">
+        <v>4097300</v>
+      </c>
+      <c r="G1152">
+        <v>45413939</v>
+      </c>
+      <c r="H1152">
+        <v>447573000</v>
+      </c>
+      <c r="I1152">
+        <v>0.009154484296416451</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:9">
+      <c r="A1153" s="3">
+        <v>45777</v>
+      </c>
+      <c r="B1153">
+        <v>11.17</v>
+      </c>
+      <c r="C1153">
+        <v>11.25</v>
+      </c>
+      <c r="D1153">
+        <v>10.92</v>
+      </c>
+      <c r="E1153">
+        <v>10.97</v>
+      </c>
+      <c r="F1153">
+        <v>4683000</v>
+      </c>
+      <c r="G1153">
+        <v>51814273</v>
+      </c>
+      <c r="H1153">
+        <v>447573000</v>
+      </c>
+      <c r="I1153">
+        <v>0.01046309763993807</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
